--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_21-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_21-27.xlsx
@@ -503,6 +503,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-2:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -525,9 +528,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>محلول خليط</t>
@@ -2952,17 +2952,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -4330,17 +4330,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4348,7 +4348,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4356,7 +4356,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
@@ -4374,7 +4374,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4400,7 +4400,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4408,7 +4408,7 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
@@ -4426,7 +4426,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4434,7 +4434,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -4452,7 +4452,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4460,7 +4460,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
@@ -4538,7 +4538,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="136" ht="25.5" customHeight="1">
       <c r="K136" s="11">
-        <v>7663.9399999999996</v>
+        <v>7724.9399999999996</v>
       </c>
       <c r="L136" s="11"/>
       <c r="M136" s="11"/>
